--- a/transition_table_exp9_ac_exvivo.xlsx
+++ b/transition_table_exp9_ac_exvivo.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chun\projects\clineage-simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="transition_table_exp9_ac_exvivo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -31,6 +31,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="175" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,15 +511,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -840,48 +844,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C2">
@@ -976,7 +981,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -1072,13 +1077,13 @@
       <c r="AF3" s="1">
         <v>2.2799999999999998E-18</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4">
         <f>SUM(C3:AF3)</f>
         <v>0.99999998073287455</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>6</v>
       </c>
@@ -1172,13 +1177,13 @@
       <c r="AF4" s="1">
         <v>9.2999999999999998E-18</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="4">
         <f t="shared" ref="AG4:AG32" si="0">SUM(C4:AF4)</f>
         <v>0.99999996486993525</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5">
         <v>7</v>
       </c>
@@ -1272,13 +1277,13 @@
       <c r="AF5" s="1">
         <v>3.8000000000000001E-17</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="4">
         <f t="shared" si="0"/>
         <v>0.99999997143266872</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6">
         <v>8</v>
       </c>
@@ -1372,13 +1377,13 @@
       <c r="AF6" s="1">
         <v>1.55E-16</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999053823729</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>9</v>
       </c>
@@ -1472,13 +1477,13 @@
       <c r="AF7" s="1">
         <v>6.3400000000000005E-16</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="4">
         <f t="shared" si="0"/>
         <v>1.000000085277569</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8">
         <v>10</v>
       </c>
@@ -1572,13 +1577,13 @@
       <c r="AF8" s="1">
         <v>2.5899999999999999E-15</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000176794537</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>11</v>
       </c>
@@ -1672,13 +1677,13 @@
       <c r="AF9" s="1">
         <v>1.06E-14</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000138347127</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10">
         <v>12</v>
       </c>
@@ -1772,13 +1777,13 @@
       <c r="AF10" s="1">
         <v>4.3200000000000001E-14</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="4">
         <f t="shared" si="0"/>
         <v>0.99999991982524616</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11">
         <v>13</v>
       </c>
@@ -1872,13 +1877,13 @@
       <c r="AF11" s="1">
         <v>1.77E-13</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000256990209</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>14</v>
       </c>
@@ -1972,13 +1977,13 @@
       <c r="AF12" s="1">
         <v>7.2099999999999996E-13</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="4">
         <f t="shared" si="0"/>
         <v>0.99999996723793116</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>15</v>
       </c>
@@ -2072,13 +2077,13 @@
       <c r="AF13" s="1">
         <v>2.9500000000000002E-12</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="4">
         <f t="shared" si="0"/>
         <v>0.99999998463164996</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14">
         <v>16</v>
       </c>
@@ -2172,13 +2177,13 @@
       <c r="AF14" s="1">
         <v>1.2000000000000001E-11</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000253073003</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15">
         <v>17</v>
       </c>
@@ -2272,13 +2277,13 @@
       <c r="AF15" s="1">
         <v>4.9200000000000002E-11</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999421919994</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16">
         <v>18</v>
       </c>
@@ -2372,13 +2377,13 @@
       <c r="AF16" s="1">
         <v>2.01E-10</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="4">
         <f t="shared" si="0"/>
         <v>0.99999992370599999</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17">
         <v>19</v>
       </c>
@@ -2472,13 +2477,13 @@
       <c r="AF17" s="1">
         <v>8.2099999999999996E-10</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="4">
         <f t="shared" si="0"/>
         <v>1.000000046339</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18">
         <v>20</v>
       </c>
@@ -2572,13 +2577,13 @@
       <c r="AF18" s="1">
         <v>3.3499999999999998E-9</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="4">
         <f t="shared" si="0"/>
         <v>0.99999993870699999</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19">
         <v>21</v>
       </c>
@@ -2672,13 +2677,13 @@
       <c r="AF19" s="1">
         <v>1.37E-8</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999918339999</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20">
         <v>22</v>
       </c>
@@ -2772,13 +2777,13 @@
       <c r="AF20" s="1">
         <v>5.5999999999999999E-8</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000065824002</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21">
         <v>23</v>
       </c>
@@ -2872,13 +2877,13 @@
       <c r="AF21" s="1">
         <v>2.29E-7</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="4">
         <f t="shared" si="0"/>
         <v>0.99999996840977989</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22">
         <v>24</v>
       </c>
@@ -2972,13 +2977,13 @@
       <c r="AF22" s="1">
         <v>9.3399999999999997E-7</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="4">
         <f t="shared" si="0"/>
         <v>0.99999996078289999</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23">
         <v>25</v>
       </c>
@@ -3072,13 +3077,13 @@
       <c r="AF23" s="1">
         <v>3.8099999999999999E-6</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="4">
         <f t="shared" si="0"/>
         <v>0.99999996653680423</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24">
         <v>26</v>
       </c>
@@ -3172,13 +3177,13 @@
       <c r="AF24" s="1">
         <v>1.56E-5</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="4">
         <f t="shared" si="0"/>
         <v>1.000000021602178</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25">
         <v>27</v>
       </c>
@@ -3272,13 +3277,13 @@
       <c r="AF25" s="1">
         <v>6.3700000000000003E-5</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000376020108</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26">
         <v>28</v>
       </c>
@@ -3372,13 +3377,13 @@
       <c r="AF26">
         <v>2.60105E-4</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="4">
         <f t="shared" si="0"/>
         <v>0.99999995787775309</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27">
         <v>29</v>
       </c>
@@ -3472,13 +3477,13 @@
       <c r="AF27">
         <v>1.062604E-3</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000764426562</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28">
         <v>30</v>
       </c>
@@ -3572,13 +3577,13 @@
       <c r="AF28">
         <v>4.3410380000000002E-3</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="4">
         <f t="shared" si="0"/>
         <v>0.99999998158989645</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29">
         <v>31</v>
       </c>
@@ -3672,13 +3677,13 @@
       <c r="AF29">
         <v>1.7734367000000001E-2</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000005536185</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30">
         <v>32</v>
       </c>
@@ -3772,13 +3777,13 @@
       <c r="AF30">
         <v>7.2449902999999996E-2</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000675340448</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31">
         <v>33</v>
       </c>
@@ -3872,13 +3877,13 @@
       <c r="AF31">
         <v>0.29597834200000001</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="4">
         <f t="shared" si="0"/>
         <v>1.0489821652646008</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32">
         <v>34</v>
       </c>
@@ -3972,7 +3977,7 @@
       <c r="AF32">
         <v>0.122620089</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="4">
         <f t="shared" si="0"/>
         <v>0.9999999829645887</v>
       </c>
